--- a/examples/client-users.xlsx
+++ b/examples/client-users.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTK\slots-backend\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA70348-A888-4019-8655-28187DC262E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DBDB42-1E29-4438-9CF7-9A30D9FED212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="slots" sheetId="1" r:id="rId1"/>
+    <sheet name="Пользователи" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Клиент</t>
   </si>
@@ -88,42 +101,6 @@
     <t>Петрович</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>psw1</t>
-  </si>
-  <si>
-    <t>psw2</t>
-  </si>
-  <si>
-    <t>psw3</t>
-  </si>
-  <si>
-    <t>psw4</t>
-  </si>
-  <si>
-    <t>psw5</t>
-  </si>
-  <si>
-    <t>psw6</t>
-  </si>
-  <si>
     <t>tixft@mail.ru</t>
   </si>
   <si>
@@ -143,6 +120,90 @@
   </si>
   <si>
     <t>916-157-12-46</t>
+  </si>
+  <si>
+    <t>tixft1@mail.ru</t>
+  </si>
+  <si>
+    <t>tixft2@mail.ru</t>
+  </si>
+  <si>
+    <t>tixft3@mail.ru</t>
+  </si>
+  <si>
+    <t>tixft4@mail.ru</t>
+  </si>
+  <si>
+    <t>tixft5@mail.ru</t>
+  </si>
+  <si>
+    <t>Кириллов</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>916-157-12-47</t>
+  </si>
+  <si>
+    <t>tixft7@mail.ru</t>
+  </si>
+  <si>
+    <t>Митрофанов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>tixft8@mail.ru</t>
+  </si>
+  <si>
+    <t>USR1</t>
+  </si>
+  <si>
+    <t>USR2</t>
+  </si>
+  <si>
+    <t>USR3</t>
+  </si>
+  <si>
+    <t>USR4</t>
+  </si>
+  <si>
+    <t>USR5</t>
+  </si>
+  <si>
+    <t>USR6</t>
+  </si>
+  <si>
+    <t>DISP1</t>
+  </si>
+  <si>
+    <t>DISP2</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Пользователь клиента</t>
+  </si>
+  <si>
+    <t>Диспетчер</t>
+  </si>
+  <si>
+    <t>ADMIN_MAIN</t>
+  </si>
+  <si>
+    <t>916-157-12-48</t>
+  </si>
+  <si>
+    <t>tixft9@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -545,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +621,10 @@
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +649,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -602,19 +667,22 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -628,19 +696,22 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -654,19 +725,22 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -680,19 +754,22 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -706,19 +783,22 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -732,23 +812,103 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F99816E6-8C9A-4103-A664-6DB248BE1119}"/>
-    <hyperlink ref="G3:G7" r:id="rId2" display="tixft@mail.ru" xr:uid="{B41C1C4A-5344-4E0E-9AB2-1B466330BCFE}"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{EC9B73A4-6A15-42E4-A64F-CDE4C8BCE9A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
